--- a/weapon_stats.xlsx
+++ b/weapon_stats.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB45D59-1D61-4F5E-BED7-3789834309AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADEC1C0-DE47-4007-A056-3EB0ADFEB33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="-3540" windowWidth="23835" windowHeight="13425" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sword" sheetId="1" r:id="rId1"/>
     <sheet name="big sword" sheetId="3" r:id="rId2"/>
     <sheet name="hammer" sheetId="2" r:id="rId3"/>
     <sheet name="heavy hammer" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
-    <sheet name="bardiche" sheetId="5" r:id="rId6"/>
-    <sheet name="wand" sheetId="6" r:id="rId7"/>
-    <sheet name="heavy crossbow" sheetId="8" r:id="rId8"/>
+    <sheet name="bardiche" sheetId="5" r:id="rId5"/>
+    <sheet name="wand" sheetId="6" r:id="rId6"/>
+    <sheet name="heavy crossbow" sheetId="8" r:id="rId7"/>
+    <sheet name="arm" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="244">
   <si>
     <t>Rune_Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,18 +828,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>6.3x</t>
-  </si>
-  <si>
-    <t>10.3x</t>
-  </si>
-  <si>
-    <t>10.8x</t>
-  </si>
-  <si>
-    <t>11.7x</t>
-  </si>
-  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,69 +844,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rune_Crossbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1x</t>
-  </si>
-  <si>
-    <t>6.6x</t>
-  </si>
-  <si>
-    <t>6.9x</t>
-  </si>
-  <si>
-    <t>7.1x</t>
-  </si>
-  <si>
-    <t>7.4x</t>
-  </si>
-  <si>
-    <t>7.7x</t>
-  </si>
-  <si>
-    <t>8x</t>
-  </si>
-  <si>
-    <t>8.3x</t>
-  </si>
-  <si>
-    <t>8.6x</t>
-  </si>
-  <si>
-    <t>8.9x</t>
-  </si>
-  <si>
-    <t>9.1x</t>
-  </si>
-  <si>
-    <t>9.4x</t>
-  </si>
-  <si>
-    <t>9.7x</t>
-  </si>
-  <si>
-    <t>10x</t>
-  </si>
-  <si>
-    <t>10.6x</t>
-  </si>
-  <si>
-    <t>11.1x</t>
-  </si>
-  <si>
-    <t>11.4x</t>
-  </si>
-  <si>
-    <t>12x</t>
-  </si>
-  <si>
     <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rune_Heavy_Crossbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy_Crossbow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1215,9 +1153,6 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,6 +1236,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,52 +1565,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -2082,40 +2020,40 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>5</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="42"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="41"/>
     </row>
     <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -2320,39 +2258,39 @@
       </c>
     </row>
     <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="21"/>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -2792,62 +2730,62 @@
     </row>
     <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="4">
         <v>11</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25" t="s">
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28" t="s">
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="31" t="s">
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="34" t="s">
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="36"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="35"/>
     </row>
     <row r="18" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8">
         <f>(C4+C9)*C15*(C6*C7+1-C6)</f>
         <v>17.152941176470588</v>
@@ -2981,7 +2919,7 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="8">
         <f>(C4+C9)*C15*(C6*C7+1-C6)</f>
         <v>17.152941176470588</v>
@@ -3115,7 +3053,7 @@
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8">
         <f>(C4+C9)*C15*(C6*C7+1-C6)</f>
         <v>17.152941176470588</v>
@@ -3249,7 +3187,7 @@
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8">
         <f>(C4+C9)*C15*(C6*C7+1-C6)</f>
         <v>17.152941176470588</v>
@@ -3383,7 +3321,7 @@
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8">
         <f>(C4+C9)*C15*(C6*C7+1-C6)</f>
         <v>17.152941176470588</v>
@@ -3514,40 +3452,40 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -4414,52 +4352,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -4970,40 +4908,40 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="41"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -5208,39 +5146,39 @@
       </c>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -5680,62 +5618,62 @@
     </row>
     <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="4">
         <v>11</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25" t="s">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="31" t="s">
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="34" t="s">
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="36"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="35"/>
     </row>
     <row r="19" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>17.647058823529413</v>
@@ -5869,7 +5807,7 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>17.647058823529413</v>
@@ -6003,7 +5941,7 @@
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>17.647058823529413</v>
@@ -6137,7 +6075,7 @@
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>17.647058823529413</v>
@@ -6268,40 +6206,40 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -6741,7 +6679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
@@ -6760,52 +6698,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -7215,19 +7153,19 @@
       <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="13">
         <v>0.2</v>
       </c>
@@ -7296,40 +7234,40 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="41"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -7534,39 +7472,39 @@
       </c>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -8013,62 +7951,62 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="4">
         <v>11</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25" t="s">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28" t="s">
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="31" t="s">
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="34" t="s">
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="36"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="35"/>
     </row>
     <row r="20" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8">
         <f>(C4+C10)*C16*(C6^$B$18)</f>
         <v>19.411764705882351</v>
@@ -8202,7 +8140,7 @@
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8">
         <f>(C4+C10)*C16*(C6^$B$18)</f>
         <v>19.411764705882351</v>
@@ -8336,7 +8274,7 @@
       <c r="A22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="8">
         <f>(C4+C10)*C16*(C6^$B$18)</f>
         <v>19.411764705882351</v>
@@ -8470,7 +8408,7 @@
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8">
         <f>(C4+C10)*C16*(C6^$B$18)</f>
         <v>19.411764705882351</v>
@@ -8604,7 +8542,7 @@
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="8">
         <f>(C4+C10)*C16*(C6^$B$18)</f>
         <v>19.411764705882351</v>
@@ -8735,40 +8673,40 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="22"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="21"/>
     </row>
     <row r="26" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -9598,7 +9536,7 @@
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8">
         <f>(C4+C10)*C16*(C6^$B$33)</f>
         <v>38.823529411764703</v>
@@ -9732,7 +9670,7 @@
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8">
         <f>(C4+C10)*C16*(C6^$B$33)</f>
         <v>38.823529411764703</v>
@@ -9866,7 +9804,7 @@
       <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="8">
         <f>(C4+C10)*C16*(C6^$B$33)</f>
         <v>38.823529411764703</v>
@@ -10000,7 +9938,7 @@
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8">
         <f>(C4+C10)*C16*(C6^$B$33)</f>
         <v>38.823529411764703</v>
@@ -10134,7 +10072,7 @@
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="8">
         <f>(C4+C10)*C16*(C6^$B$33)</f>
         <v>38.823529411764703</v>
@@ -10265,40 +10203,40 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="22"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="21"/>
     </row>
     <row r="40" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -11149,7 +11087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F473B26-C8E8-4620-9C04-9B7CCD4458B2}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -11168,52 +11106,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -11623,19 +11561,19 @@
       <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>1</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="13">
         <v>1</v>
       </c>
@@ -11906,40 +11844,40 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="42"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="41"/>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -12144,39 +12082,39 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="2:34" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
@@ -12623,62 +12561,62 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="4">
         <v>11</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25" t="s">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28" t="s">
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="31" t="s">
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="34" t="s">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="36"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="35"/>
     </row>
     <row r="22" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8">
         <f t="shared" ref="C22:M22" si="1">(C4+C12)*C18*(C6^$B$20)</f>
         <v>7.1999999999999993</v>
@@ -12812,7 +12750,7 @@
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8">
         <f t="shared" ref="C23:M23" si="3">(C4+C12)*C18*(C6^$B$20)</f>
         <v>7.1999999999999993</v>
@@ -12946,7 +12884,7 @@
       <c r="A24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8">
         <f t="shared" ref="C24:M24" si="5">(C4+C12)*C18*(C6^$B$20)</f>
         <v>7.1999999999999993</v>
@@ -13080,7 +13018,7 @@
       <c r="A25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="8">
         <f t="shared" ref="C25:M25" si="7">(C4+C12)*C18*(C6^$B$20)</f>
         <v>7.1999999999999993</v>
@@ -13211,40 +13149,40 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="22"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="21"/>
     </row>
     <row r="27" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -13666,7 +13604,7 @@
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8">
         <f t="shared" ref="C32:M32" si="15">(C4+C12)*C18*(C6^$B$31)</f>
         <v>14.399999999999999</v>
@@ -13800,7 +13738,7 @@
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8">
         <f t="shared" ref="C33:M33" si="17">(C4+C12)*C18*(C6^$B$31)</f>
         <v>14.399999999999999</v>
@@ -13934,7 +13872,7 @@
       <c r="A34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="8">
         <f t="shared" ref="C34:M34" si="19">(C4+C12)*C18*(C6^$B$31)</f>
         <v>14.399999999999999</v>
@@ -14068,7 +14006,7 @@
       <c r="A35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="8">
         <f t="shared" ref="C35:M35" si="21">(C4+C12)*C18*(C6^$B$31)</f>
         <v>14.399999999999999</v>
@@ -14199,40 +14137,40 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="21"/>
     </row>
     <row r="37" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -14975,19 +14913,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE29A8E2-54CF-4D75-B2DD-1F9969BEE323}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329EBB-776F-4237-A762-6A60CA629533}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
@@ -15010,52 +14935,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="1:34" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -15465,40 +15390,40 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>5</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="42"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="41"/>
     </row>
     <row r="9" spans="1:34" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -15602,39 +15527,39 @@
       </c>
     </row>
     <row r="10" spans="1:34" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="1:34" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -16074,63 +15999,63 @@
     </row>
     <row r="15" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="4">
         <v>11</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25" t="s">
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28" t="s">
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="31" t="s">
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="34" t="s">
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="36"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="35"/>
     </row>
     <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:M17" si="1">(C4+C9)*C14*(C6*C7+1-C6)</f>
@@ -16264,7 +16189,7 @@
     <row r="18" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C18" s="8">
         <f>(C4+17)*C7</f>
@@ -16400,7 +16325,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" ref="C19:M19" si="5">(C4+C9)*C14*(C6*C7+1-C6)</f>
@@ -16534,7 +16459,7 @@
     <row r="20" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C20" s="8">
         <f>(C4+17)*C7</f>
@@ -16670,7 +16595,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" ref="C21:M21" si="9">(C4+C9)*C14*(C6*C7+1-C6)</f>
@@ -16804,7 +16729,7 @@
     <row r="22" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C22" s="8">
         <f>(C4+17)*C7</f>
@@ -16936,40 +16861,40 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -17110,7 +17035,7 @@
     <row r="25" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="8">
         <f>(C4+17)*C7</f>
@@ -17380,7 +17305,7 @@
     <row r="27" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" s="8">
         <f>(C4+17)*C7</f>
@@ -17650,7 +17575,7 @@
     <row r="29" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="8">
         <f>(C4+17)*C7</f>
@@ -17805,11 +17730,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8175246D-AD44-422F-B03A-8D94C1783007}">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="R6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -17820,7 +17745,7 @@
   <sheetData>
     <row r="1" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -17828,52 +17753,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -18384,40 +18309,40 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="42"/>
+      <c r="C9" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="41"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -18622,39 +18547,39 @@
       </c>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -19094,62 +19019,62 @@
     </row>
     <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="4">
         <v>11</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25" t="s">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="31" t="s">
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="34" t="s">
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="36"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="35"/>
     </row>
     <row r="19" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>9.545454545454545</v>
@@ -19283,7 +19208,7 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>9.545454545454545</v>
@@ -19417,7 +19342,7 @@
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>9.545454545454545</v>
@@ -19551,7 +19476,7 @@
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8">
         <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
         <v>9.545454545454545</v>
@@ -19682,40 +19607,40 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -20150,12 +20075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A6DB1-C335-4EF5-94E3-297670D8F9BE}">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:AH10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20165,7 +20090,7 @@
   <sheetData>
     <row r="1" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -20173,52 +20098,52 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -20325,37 +20250,37 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="47">
         <v>1.111</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="47">
         <v>1.111</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="47">
         <v>1.111</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="47">
         <v>1.111</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="47">
         <v>1.111</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="47">
         <v>1.111</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="47">
         <v>1.111</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="47">
         <v>1.111</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="47">
         <v>1.111</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="47">
         <v>1.111</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="47">
         <v>1.111</v>
       </c>
       <c r="N5" s="11">
@@ -20548,159 +20473,159 @@
       <c r="I7" s="11">
         <v>4.8</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>262</v>
+      <c r="J7" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K7" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="L7" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="M7" s="11">
+        <v>6</v>
+      </c>
+      <c r="N7" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="P7" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="R7" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="S7" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="T7" s="11">
+        <v>8</v>
+      </c>
+      <c r="U7" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V7" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="W7" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="X7" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="42"/>
+      <c r="C8" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="41"/>
     </row>
     <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="41"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -20804,1919 +20729,3943 @@
       </c>
     </row>
     <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="21"/>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11">
+        <v>16</v>
+      </c>
+      <c r="I12" s="11">
+        <v>16</v>
+      </c>
+      <c r="J12" s="11">
+        <v>16</v>
+      </c>
+      <c r="K12" s="11">
+        <v>16</v>
+      </c>
+      <c r="L12" s="11">
+        <v>16</v>
+      </c>
+      <c r="M12" s="11">
+        <v>16</v>
+      </c>
+      <c r="N12" s="11">
+        <v>15</v>
+      </c>
+      <c r="O12" s="11">
+        <v>15</v>
+      </c>
+      <c r="P12" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>14</v>
+      </c>
+      <c r="R12" s="11">
+        <v>14</v>
+      </c>
+      <c r="S12" s="11">
+        <v>13</v>
+      </c>
+      <c r="T12" s="11">
+        <v>13</v>
+      </c>
+      <c r="U12" s="11">
+        <v>13</v>
+      </c>
+      <c r="V12" s="11">
+        <v>12</v>
+      </c>
+      <c r="W12" s="11">
+        <v>12</v>
+      </c>
+      <c r="X12" s="11">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="11">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6</v>
+      </c>
+      <c r="K13" s="11">
+        <v>6</v>
+      </c>
+      <c r="L13" s="11">
+        <v>6</v>
+      </c>
+      <c r="M13" s="11">
+        <v>6</v>
+      </c>
+      <c r="N13" s="11">
+        <v>5</v>
+      </c>
+      <c r="O13" s="11">
+        <v>5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>4</v>
+      </c>
+      <c r="R13" s="11">
+        <v>4</v>
+      </c>
+      <c r="S13" s="11">
+        <v>4</v>
+      </c>
+      <c r="T13" s="11">
+        <v>3</v>
+      </c>
+      <c r="U13" s="11">
+        <v>3</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>5</v>
+      </c>
+      <c r="L14" s="11">
+        <v>5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5</v>
+      </c>
+      <c r="N14" s="11">
+        <v>5</v>
+      </c>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+      <c r="P14" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>4</v>
+      </c>
+      <c r="R14" s="11">
+        <v>3</v>
+      </c>
+      <c r="S14" s="11">
+        <v>3</v>
+      </c>
+      <c r="T14" s="11">
+        <v>3</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>2</v>
+      </c>
+      <c r="W14" s="11">
+        <v>2</v>
+      </c>
+      <c r="X14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9">
+        <f>30/(C12+C13)</f>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ref="D15:AH15" si="0">30/(D12+D13)</f>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="AF15" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH15" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9" t="e">
-        <f>30/(C13+C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="9" t="e">
-        <f t="shared" ref="D16:AH16" si="0">30/(D13+D14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="4">
+        <v>11</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="35"/>
     </row>
-    <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="4">
-        <v>11</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="36"/>
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:M18" si="1">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="1"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="1"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" ref="N18:AH18" si="2">(N4+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>144.54545454545453</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="2"/>
+        <v>155.38636363636363</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="2"/>
+        <v>166.22727272727269</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="2"/>
+        <v>177.06818181818178</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="2"/>
+        <v>187.90909090909091</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="2"/>
+        <v>198.75</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="2"/>
+        <v>209.59090909090907</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="2"/>
+        <v>220.43181818181816</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="2"/>
+        <v>231.27272727272725</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="2"/>
+        <v>242.11363636363635</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="2"/>
+        <v>252.95454545454544</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="2"/>
+        <v>263.7954545454545</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="2"/>
+        <v>274.63636363636363</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" si="2"/>
+        <v>285.47727272727269</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="2"/>
+        <v>296.31818181818181</v>
+      </c>
+      <c r="AC18" s="8">
+        <f t="shared" si="2"/>
+        <v>307.15909090909088</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="2"/>
+        <v>317.99999999999994</v>
+      </c>
+      <c r="AE18" s="8">
+        <f t="shared" si="2"/>
+        <v>328.84090909090907</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="2"/>
+        <v>339.68181818181813</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="2"/>
+        <v>350.5227272727272</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="2"/>
+        <v>361.36363636363632</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="37"/>
-      <c r="C19" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="8" t="e">
-        <f t="shared" ref="D19:M19" si="1">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="8" t="e">
-        <f>(N4+$M$10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="8" t="e">
-        <f t="shared" ref="O19:AH19" si="2">(O4+$M$10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:M19" si="3">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="3"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="3"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="3"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="3"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="3"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="3"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="3"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="3"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N19" s="8">
+        <f>($M$4+$M$10)*N15*($M$6*$M$7+1-$M$6)</f>
+        <v>147.07499999999999</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" ref="O19:AH19" si="4">($M$4+$M$10)*O15*($M$6*$M$7+1-$M$6)</f>
+        <v>147.07499999999999</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="4"/>
+        <v>154.81578947368419</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="4"/>
+        <v>163.41666666666669</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="4"/>
+        <v>163.41666666666669</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="4"/>
+        <v>173.02941176470588</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="4"/>
+        <v>183.84375</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="4"/>
+        <v>183.84375</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="4"/>
+        <v>196.1</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" si="4"/>
+        <v>210.10714285714283</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" si="4"/>
+        <v>210.10714285714283</v>
+      </c>
+      <c r="Y19" s="8">
+        <f t="shared" si="4"/>
+        <v>226.26923076923072</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="4"/>
+        <v>245.125</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" si="4"/>
+        <v>267.40909090909088</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="4"/>
+        <v>294.14999999999998</v>
+      </c>
+      <c r="AC19" s="8">
+        <f t="shared" si="4"/>
+        <v>326.83333333333337</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="4"/>
+        <v>367.6875</v>
+      </c>
+      <c r="AE19" s="8">
+        <f t="shared" si="4"/>
+        <v>420.21428571428567</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="4"/>
+        <v>490.25</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="4"/>
+        <v>490.25</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="4"/>
+        <v>588.29999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="8" t="e">
-        <f t="shared" ref="D20:M20" si="3">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="8" t="e">
-        <f>($M$4+$M$10)*N16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="8" t="e">
-        <f t="shared" ref="O20:AH20" si="4">($M$4+$M$10)*O16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="8">
+        <f t="shared" ref="C20:M20" si="5">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="5"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="5"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="5"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="5"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="5"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="5"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="5"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="5"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="5"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="5"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" ref="N20:AH20" si="6">($M$4+$M$10)*$M$15*(N6*N7+1-N6)</f>
+        <v>144.04772727272726</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="6"/>
+        <v>154.99636363636361</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="6"/>
+        <v>166.55045454545456</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="6"/>
+        <v>176.64136363636359</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="6"/>
+        <v>189.30545454545455</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="6"/>
+        <v>202.57499999999999</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="6"/>
+        <v>216.45</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="6"/>
+        <v>230.93045454545452</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="6"/>
+        <v>246.01636363636365</v>
+      </c>
+      <c r="W20" s="8">
+        <f t="shared" si="6"/>
+        <v>261.70772727272725</v>
+      </c>
+      <c r="X20" s="8">
+        <f t="shared" si="6"/>
+        <v>275.22954545454547</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" si="6"/>
+        <v>292.03090909090906</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" si="6"/>
+        <v>309.43772727272722</v>
+      </c>
+      <c r="AA20" s="8">
+        <f t="shared" si="6"/>
+        <v>327.44999999999993</v>
+      </c>
+      <c r="AB20" s="8">
+        <f t="shared" si="6"/>
+        <v>346.06772727272732</v>
+      </c>
+      <c r="AC20" s="8">
+        <f t="shared" si="6"/>
+        <v>365.29090909090905</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="6"/>
+        <v>381.73909090909092</v>
+      </c>
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>402.07227272727266</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="6"/>
+        <v>423.01090909090908</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="6"/>
+        <v>444.55499999999989</v>
+      </c>
+      <c r="AH20" s="8">
+        <f t="shared" si="6"/>
+        <v>466.70454545454544</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="8" t="e">
-        <f t="shared" ref="D21:M21" si="5">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="8" t="e">
-        <f>($M$4+$M$10)*$M$16*(N6*N7+1-N6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="8" t="e">
-        <f t="shared" ref="O21:AH21" si="6">($M$4+$M$10)*$M$16*(O6*O7+1-O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH21" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:M21" si="7">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="7"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="7"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="7"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="7"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="7"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="7"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="7"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="7"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="7"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="7"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" ref="N21:AH21" si="8">($M$4+N10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>144.54545454545453</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="8"/>
+        <v>158.99999999999997</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="8"/>
+        <v>169.84090909090907</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="8"/>
+        <v>184.29545454545453</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="8"/>
+        <v>195.1363636363636</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="8"/>
+        <v>209.59090909090907</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="8"/>
+        <v>220.43181818181816</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="8"/>
+        <v>234.8863636363636</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="8"/>
+        <v>245.72727272727269</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="8"/>
+        <v>260.18181818181813</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="8"/>
+        <v>271.02272727272725</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="8"/>
+        <v>285.47727272727269</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" si="8"/>
+        <v>296.31818181818181</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="8"/>
+        <v>310.77272727272725</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="8"/>
+        <v>321.61363636363632</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" si="8"/>
+        <v>336.06818181818181</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="8"/>
+        <v>346.90909090909088</v>
+      </c>
+      <c r="AE21" s="8">
+        <f t="shared" si="8"/>
+        <v>361.36363636363632</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="8"/>
+        <v>372.20454545454538</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>386.65909090909088</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" si="8"/>
+        <v>397.5</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="8" t="e">
-        <f t="shared" ref="D22:M22" si="7">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="8" t="e">
-        <f>($M$4+N10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="8" t="e">
-        <f t="shared" ref="O22:AH22" si="8">($M$4+O10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH22" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="8" t="e">
-        <f t="shared" ref="D23:M23" si="9">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="8" t="e">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:M23" si="9">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="8" t="e">
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="8" t="e">
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="8" t="e">
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8" t="e">
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="8" t="e">
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="8" t="e">
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="8" t="e">
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="8" t="e">
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L23" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="8" t="e">
-        <f>($M$4+$M$10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="8" t="e">
-        <f t="shared" ref="O23:AH23" si="10">($M$4+$M$10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="8" t="e">
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="9"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" ref="N23:AH23" si="10">(N4+$M$10)*N15*($M$6*$M$7+1-$M$6)</f>
+        <v>159</v>
+      </c>
+      <c r="O23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="8" t="e">
+        <v>170.92499999999998</v>
+      </c>
+      <c r="P23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="8" t="e">
+        <v>192.47368421052633</v>
+      </c>
+      <c r="Q23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="8" t="e">
+        <v>216.41666666666669</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="8" t="e">
+        <v>229.66666666666669</v>
+      </c>
+      <c r="S23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="8" t="e">
+        <v>257.20588235294116</v>
+      </c>
+      <c r="T23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="8" t="e">
+        <v>288.1875</v>
+      </c>
+      <c r="U23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="8" t="e">
+        <v>303.09375</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="8" t="e">
+        <v>339.2</v>
+      </c>
+      <c r="W23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="8" t="e">
+        <v>380.46428571428567</v>
+      </c>
+      <c r="X23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="8" t="e">
+        <v>397.5</v>
+      </c>
+      <c r="Y23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA23" s="8" t="e">
+        <v>446.42307692307691</v>
+      </c>
+      <c r="Z23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB23" s="8" t="e">
+        <v>503.5</v>
+      </c>
+      <c r="AA23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC23" s="8" t="e">
+        <v>570.95454545454538</v>
+      </c>
+      <c r="AB23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD23" s="8" t="e">
+        <v>651.9</v>
+      </c>
+      <c r="AC23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE23" s="8" t="e">
+        <v>750.83333333333337</v>
+      </c>
+      <c r="AD23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF23" s="8" t="e">
+        <v>874.5</v>
+      </c>
+      <c r="AE23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG23" s="8" t="e">
+        <v>1033.5</v>
+      </c>
+      <c r="AF23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH23" s="8" t="e">
+        <v>1245.5</v>
+      </c>
+      <c r="AG23" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1285.25</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="10"/>
+        <v>1590</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="22"/>
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:M24" si="11">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="11"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="11"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="11"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="11"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="11"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="11"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="11"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="11"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="11"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="11"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" ref="N24:AH24" si="12">(N4+$M$10)*$M$15*(N6*N7+1-N6)</f>
+        <v>155.72727272727269</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="12"/>
+        <v>180.13090909090906</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="12"/>
+        <v>207.06272727272724</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="12"/>
+        <v>233.9304545454545</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="12"/>
+        <v>266.0509090909091</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="12"/>
+        <v>301.125</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="12"/>
+        <v>339.29999999999995</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="12"/>
+        <v>380.72318181818179</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="12"/>
+        <v>425.5418181818182</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="12"/>
+        <v>473.90318181818185</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" si="12"/>
+        <v>520.7045454545455</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" si="12"/>
+        <v>576.16909090909076</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" si="12"/>
+        <v>635.60181818181798</v>
+      </c>
+      <c r="AA24" s="8">
+        <f t="shared" si="12"/>
+        <v>699.14999999999986</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" si="12"/>
+        <v>766.96090909090913</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" si="12"/>
+        <v>839.18181818181813</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="12"/>
+        <v>907.92</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" si="12"/>
+        <v>988.88045454545443</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="12"/>
+        <v>1074.6763636363635</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="12"/>
+        <v>1165.4549999999995</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="12"/>
+        <v>1261.3636363636363</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="8" t="e">
-        <f t="shared" ref="D25:M25" si="11">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="8" t="e">
-        <f>(N4+$M$10)*N16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="8" t="e">
-        <f t="shared" ref="O25:AH25" si="12">(O4+$M$10)*O16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:M25" si="13">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="13"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="13"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="13"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="13"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="13"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="13"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="13"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="13"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="13"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="13"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" ref="N25:AH25" si="14">(N4+N10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>155.38636363636363</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="14"/>
+        <v>180.68181818181816</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="14"/>
+        <v>202.36363636363635</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="14"/>
+        <v>227.65909090909091</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="14"/>
+        <v>249.34090909090907</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="14"/>
+        <v>274.63636363636363</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="14"/>
+        <v>296.31818181818181</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="14"/>
+        <v>321.61363636363632</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" si="14"/>
+        <v>343.2954545454545</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="14"/>
+        <v>368.59090909090907</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" si="14"/>
+        <v>390.2727272727272</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="14"/>
+        <v>415.56818181818181</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="14"/>
+        <v>437.25</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="14"/>
+        <v>462.5454545454545</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="14"/>
+        <v>484.22727272727269</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" si="14"/>
+        <v>509.5227272727272</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="14"/>
+        <v>531.20454545454538</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="14"/>
+        <v>556.49999999999989</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="14"/>
+        <v>578.18181818181813</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="14"/>
+        <v>603.47727272727263</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="14"/>
+        <v>625.15909090909076</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="8" t="e">
-        <f t="shared" ref="D26:M26" si="13">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="8" t="e">
-        <f>(N4+$M$10)*$M$16*(N6*N7+1-N6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="8" t="e">
-        <f t="shared" ref="O26:AH26" si="14">(O4+$M$10)*$M$16*(O6*O7+1-O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH26" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:M26" si="15">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="15"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="15"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="15"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="15"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="15"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="15"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="15"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="15"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="15"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="15"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" ref="N26:AH26" si="16">($M$4+$M$10)*N15*(N6*N7+1-N6)</f>
+        <v>158.45249999999999</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="16"/>
+        <v>170.49599999999998</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="16"/>
+        <v>192.84789473684211</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="16"/>
+        <v>215.89499999999998</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="16"/>
+        <v>231.37333333333336</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="16"/>
+        <v>262.15588235294115</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="16"/>
+        <v>297.61874999999998</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="16"/>
+        <v>317.52937500000002</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="16"/>
+        <v>360.82400000000001</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" si="16"/>
+        <v>411.255</v>
+      </c>
+      <c r="X26" s="8">
+        <f t="shared" si="16"/>
+        <v>432.50357142857138</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" si="16"/>
+        <v>494.20615384615371</v>
+      </c>
+      <c r="Z26" s="8">
+        <f t="shared" si="16"/>
+        <v>567.3024999999999</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="16"/>
+        <v>654.89999999999986</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="16"/>
+        <v>761.34900000000005</v>
+      </c>
+      <c r="AC26" s="8">
+        <f t="shared" si="16"/>
+        <v>892.93333333333328</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="16"/>
+        <v>1049.7825</v>
+      </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="16"/>
+        <v>1263.6557142857141</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="16"/>
+        <v>1551.04</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="16"/>
+        <v>1630.0349999999996</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="16"/>
+        <v>2053.5</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="8" t="e">
-        <f t="shared" ref="D27:M27" si="15">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="8" t="e">
-        <f>(N4+N10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="8" t="e">
-        <f t="shared" ref="O27:AH27" si="16">(O4+O10)*$M$16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH27" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:M27" si="17">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="17"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="17"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="17"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="17"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="17"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="17"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="17"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="17"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="17"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="17"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" ref="N27:AH27" si="18">($M$4+N10)*N15*($M$6*$M$7+1-$M$6)</f>
+        <v>159</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="18"/>
+        <v>174.9</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="18"/>
+        <v>196.65789473684211</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="18"/>
+        <v>225.25</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="18"/>
+        <v>238.5</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="18"/>
+        <v>271.23529411764702</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="18"/>
+        <v>303.09375</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="18"/>
+        <v>322.96875</v>
+      </c>
+      <c r="V27" s="8">
+        <f t="shared" si="18"/>
+        <v>360.4</v>
+      </c>
+      <c r="W27" s="8">
+        <f t="shared" si="18"/>
+        <v>408.85714285714283</v>
+      </c>
+      <c r="X27" s="8">
+        <f t="shared" si="18"/>
+        <v>425.89285714285717</v>
+      </c>
+      <c r="Y27" s="8">
+        <f t="shared" si="18"/>
+        <v>483.11538461538458</v>
+      </c>
+      <c r="Z27" s="8">
+        <f t="shared" si="18"/>
+        <v>543.25</v>
+      </c>
+      <c r="AA27" s="8">
+        <f t="shared" si="18"/>
+        <v>621.5454545454545</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="18"/>
+        <v>707.55</v>
+      </c>
+      <c r="AC27" s="8">
+        <f t="shared" si="18"/>
+        <v>821.5</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="18"/>
+        <v>954</v>
+      </c>
+      <c r="AE27" s="8">
+        <f t="shared" si="18"/>
+        <v>1135.7142857142856</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="18"/>
+        <v>1364.75</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="18"/>
+        <v>1417.75</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="18"/>
+        <v>1749</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ref="C28:M28" si="19">(C4+C10)*C15*(C6*C7+1-C6)</f>
+        <v>11.072727272727271</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="19"/>
+        <v>15.236590909090909</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="19"/>
+        <v>23.719090909090909</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="19"/>
+        <v>29.648863636363636</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="19"/>
+        <v>40.832727272727269</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="19"/>
+        <v>49.182954545454535</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="19"/>
+        <v>63.886363636363633</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="19"/>
+        <v>75.311590909090896</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="19"/>
+        <v>94.352727272727265</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="19"/>
+        <v>109.50749999999999</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="19"/>
+        <v>133.70454545454544</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" ref="N28:AH28" si="20">($M$4+N10)*$M$15*(N6*N7+1-N6)</f>
+        <v>155.72727272727269</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="20"/>
+        <v>184.31999999999996</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="20"/>
+        <v>211.56409090909088</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="20"/>
+        <v>243.47863636363633</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="20"/>
+        <v>276.28363636363633</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" si="20"/>
+        <v>317.54999999999995</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="20"/>
+        <v>356.84999999999997</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="20"/>
+        <v>405.68863636363631</v>
+      </c>
+      <c r="V28" s="8">
+        <f t="shared" si="20"/>
+        <v>452.13818181818181</v>
+      </c>
+      <c r="W28" s="8">
+        <f t="shared" si="20"/>
+        <v>509.26909090909089</v>
+      </c>
+      <c r="X28" s="8">
+        <f t="shared" si="20"/>
+        <v>557.89772727272725</v>
+      </c>
+      <c r="Y28" s="8">
+        <f t="shared" si="20"/>
+        <v>623.52545454545441</v>
+      </c>
+      <c r="Z28" s="8">
+        <f t="shared" si="20"/>
+        <v>685.78090909090895</v>
+      </c>
+      <c r="AA28" s="8">
+        <f t="shared" si="20"/>
+        <v>761.09999999999991</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="20"/>
+        <v>832.43318181818188</v>
+      </c>
+      <c r="AC28" s="8">
+        <f t="shared" si="20"/>
+        <v>918.16363636363621</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="20"/>
+        <v>990.45818181818186</v>
+      </c>
+      <c r="AE28" s="8">
+        <f t="shared" si="20"/>
+        <v>1086.681818181818</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="20"/>
+        <v>1177.570909090909</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="20"/>
+        <v>1285.6049999999998</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="20"/>
+        <v>1387.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="35"/>
+    </row>
+    <row r="34" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11">
+        <v>6</v>
+      </c>
+      <c r="F34" s="11">
+        <v>9</v>
+      </c>
+      <c r="G34" s="11">
+        <v>12</v>
+      </c>
+      <c r="H34" s="11">
+        <v>15</v>
+      </c>
+      <c r="I34" s="11">
+        <v>17</v>
+      </c>
+      <c r="J34" s="11">
+        <v>20</v>
+      </c>
+      <c r="K34" s="11">
+        <v>22</v>
+      </c>
+      <c r="L34" s="11">
+        <v>25</v>
+      </c>
+      <c r="M34" s="11">
+        <v>27</v>
+      </c>
+      <c r="N34" s="11">
+        <v>30</v>
+      </c>
+      <c r="O34" s="11">
+        <v>33</v>
+      </c>
+      <c r="P34" s="11">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>39</v>
+      </c>
+      <c r="R34" s="11">
+        <v>42</v>
+      </c>
+      <c r="S34" s="11">
+        <v>45</v>
+      </c>
+      <c r="T34" s="11">
+        <v>48</v>
+      </c>
+      <c r="U34" s="11">
+        <v>51</v>
+      </c>
+      <c r="V34" s="11">
+        <v>54</v>
+      </c>
+      <c r="W34" s="11">
+        <v>57</v>
+      </c>
+      <c r="X34" s="11">
+        <v>60</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>63</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>66</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>69</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>72</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>75</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>78</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>81</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>84</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>87</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="D35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="E35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="F35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="G35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="H35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="I35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="J35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="K35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="L35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="M35" s="47">
+        <v>1.111</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O35" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="P35" s="11">
+        <v>1.304</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="R35" s="11">
+        <v>1.429</v>
+      </c>
+      <c r="S35" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="T35" s="11">
+        <v>1.579</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1.667</v>
+      </c>
+      <c r="V35" s="11">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="W35" s="11">
+        <v>1.875</v>
+      </c>
+      <c r="X35" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.105</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.155</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0.255</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="P36" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="T36" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="W36" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="X36" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y36" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="AE36" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="AF36" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="AG36" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="AH36" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="11">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="E37" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="G37" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="H37" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="I37" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="J37" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K37" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="L37" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="M37" s="11">
+        <v>6</v>
+      </c>
+      <c r="N37" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O37" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="P37" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="R37" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="S37" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="T37" s="11">
+        <v>8</v>
+      </c>
+      <c r="U37" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V37" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="W37" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="X37" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="41"/>
+    </row>
+    <row r="39" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
+        <v>0</v>
+      </c>
+      <c r="U39" s="11">
+        <v>0</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0</v>
+      </c>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="21"/>
+    </row>
+    <row r="41" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="11">
+        <v>16</v>
+      </c>
+      <c r="D41" s="11">
+        <v>16</v>
+      </c>
+      <c r="E41" s="11">
+        <v>16</v>
+      </c>
+      <c r="F41" s="11">
+        <v>16</v>
+      </c>
+      <c r="G41" s="11">
+        <v>16</v>
+      </c>
+      <c r="H41" s="11">
+        <v>16</v>
+      </c>
+      <c r="I41" s="11">
+        <v>16</v>
+      </c>
+      <c r="J41" s="11">
+        <v>16</v>
+      </c>
+      <c r="K41" s="11">
+        <v>16</v>
+      </c>
+      <c r="L41" s="11">
+        <v>16</v>
+      </c>
+      <c r="M41" s="11">
+        <v>16</v>
+      </c>
+      <c r="N41" s="11">
+        <v>15</v>
+      </c>
+      <c r="O41" s="11">
+        <v>15</v>
+      </c>
+      <c r="P41" s="11">
         <v>14</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="Q41" s="11">
+        <v>14</v>
+      </c>
+      <c r="R41" s="11">
+        <v>14</v>
+      </c>
+      <c r="S41" s="11">
+        <v>13</v>
+      </c>
+      <c r="T41" s="11">
+        <v>13</v>
+      </c>
+      <c r="U41" s="11">
+        <v>13</v>
+      </c>
+      <c r="V41" s="11">
+        <v>12</v>
+      </c>
+      <c r="W41" s="11">
+        <v>12</v>
+      </c>
+      <c r="X41" s="11">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>11</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>11</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="11">
+        <v>6</v>
+      </c>
+      <c r="D42" s="11">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11">
+        <v>6</v>
+      </c>
+      <c r="F42" s="11">
+        <v>6</v>
+      </c>
+      <c r="G42" s="11">
+        <v>6</v>
+      </c>
+      <c r="H42" s="11">
+        <v>6</v>
+      </c>
+      <c r="I42" s="11">
+        <v>6</v>
+      </c>
+      <c r="J42" s="11">
+        <v>6</v>
+      </c>
+      <c r="K42" s="11">
+        <v>6</v>
+      </c>
+      <c r="L42" s="11">
+        <v>6</v>
+      </c>
+      <c r="M42" s="11">
+        <v>6</v>
+      </c>
+      <c r="N42" s="11">
+        <v>5</v>
+      </c>
+      <c r="O42" s="11">
+        <v>5</v>
+      </c>
+      <c r="P42" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>4</v>
+      </c>
+      <c r="R42" s="11">
+        <v>4</v>
+      </c>
+      <c r="S42" s="11">
+        <v>4</v>
+      </c>
+      <c r="T42" s="11">
+        <v>3</v>
+      </c>
+      <c r="U42" s="11">
+        <v>3</v>
+      </c>
+      <c r="V42" s="11">
+        <v>3</v>
+      </c>
+      <c r="W42" s="11">
+        <v>2</v>
+      </c>
+      <c r="X42" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="11">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5</v>
+      </c>
+      <c r="E43" s="11">
+        <v>5</v>
+      </c>
+      <c r="F43" s="11">
+        <v>5</v>
+      </c>
+      <c r="G43" s="11">
+        <v>5</v>
+      </c>
+      <c r="H43" s="11">
+        <v>5</v>
+      </c>
+      <c r="I43" s="11">
+        <v>5</v>
+      </c>
+      <c r="J43" s="11">
+        <v>5</v>
+      </c>
+      <c r="K43" s="11">
+        <v>5</v>
+      </c>
+      <c r="L43" s="11">
+        <v>5</v>
+      </c>
+      <c r="M43" s="11">
+        <v>5</v>
+      </c>
+      <c r="N43" s="11">
+        <v>5</v>
+      </c>
+      <c r="O43" s="11">
+        <v>4</v>
+      </c>
+      <c r="P43" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>4</v>
+      </c>
+      <c r="R43" s="11">
+        <v>3</v>
+      </c>
+      <c r="S43" s="11">
+        <v>3</v>
+      </c>
+      <c r="T43" s="11">
+        <v>3</v>
+      </c>
+      <c r="U43" s="11">
+        <v>2</v>
+      </c>
+      <c r="V43" s="11">
+        <v>2</v>
+      </c>
+      <c r="W43" s="11">
+        <v>2</v>
+      </c>
+      <c r="X43" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="9">
+        <f>30/(C41+C42)</f>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" ref="D44:AH44" si="21">30/(D41+D42)</f>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.875</v>
+      </c>
+      <c r="U44" s="9">
+        <f t="shared" si="21"/>
+        <v>1.875</v>
+      </c>
+      <c r="V44" s="9">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="W44" s="9">
+        <f t="shared" si="21"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="X44" s="9">
+        <f t="shared" si="21"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="Y44" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="Z44" s="9">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" si="21"/>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="AB44" s="9">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="21"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" si="21"/>
+        <v>3.75</v>
+      </c>
+      <c r="AE44" s="9">
+        <f t="shared" si="21"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="AF44" s="9">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AG44" s="9">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AH44" s="9">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="4">
+        <v>11</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="25"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="35"/>
+    </row>
+    <row r="47" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D47" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E47" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F47" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G47" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H47" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I47" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J47" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K47" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L47" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M47" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N47" s="8">
+        <f>(N34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>180.68181818181816</v>
+      </c>
+      <c r="O47" s="8">
+        <f>(O34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>191.52272727272725</v>
+      </c>
+      <c r="P47" s="8">
+        <f>(P34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>202.36363636363635</v>
+      </c>
+      <c r="Q47" s="8">
+        <f>(Q34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>213.20454545454544</v>
+      </c>
+      <c r="R47" s="8">
+        <f>(R34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>224.0454545454545</v>
+      </c>
+      <c r="S47" s="8">
+        <f>(S34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>234.8863636363636</v>
+      </c>
+      <c r="T47" s="8">
+        <f>(T34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>245.72727272727269</v>
+      </c>
+      <c r="U47" s="8">
+        <f>(U34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>256.56818181818181</v>
+      </c>
+      <c r="V47" s="8">
+        <f>(V34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>267.40909090909088</v>
+      </c>
+      <c r="W47" s="8">
+        <f>(W34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>278.24999999999994</v>
+      </c>
+      <c r="X47" s="8">
+        <f>(X34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>289.09090909090907</v>
+      </c>
+      <c r="Y47" s="8">
+        <f>(Y34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>299.93181818181813</v>
+      </c>
+      <c r="Z47" s="8">
+        <f>(Z34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>310.77272727272725</v>
+      </c>
+      <c r="AA47" s="8">
+        <f>(AA34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>321.61363636363632</v>
+      </c>
+      <c r="AB47" s="8">
+        <f>(AB34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>332.45454545454538</v>
+      </c>
+      <c r="AC47" s="8">
+        <f>(AC34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>343.2954545454545</v>
+      </c>
+      <c r="AD47" s="8">
+        <f>(AD34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>354.13636363636357</v>
+      </c>
+      <c r="AE47" s="8">
+        <f>(AE34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>364.97727272727269</v>
+      </c>
+      <c r="AF47" s="8">
+        <f>(AF34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>375.81818181818181</v>
+      </c>
+      <c r="AG47" s="8">
+        <f>(AG34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>386.65909090909088</v>
+      </c>
+      <c r="AH47" s="8">
+        <f>(AH34+$M$10)*$M$15*($M$6*$M$7+1-$M$6)</f>
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D48" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E48" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F48" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G48" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H48" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I48" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J48" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K48" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L48" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M48" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N48" s="8">
+        <f>($M$4+$M$10)*N44*($M$6*$M$7+1-$M$6)</f>
+        <v>147.07499999999999</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" ref="O48:AH48" si="22">($M$4+$M$10)*O44*($M$6*$M$7+1-$M$6)</f>
+        <v>147.07499999999999</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="22"/>
+        <v>154.81578947368419</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" si="22"/>
+        <v>163.41666666666669</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="22"/>
+        <v>163.41666666666669</v>
+      </c>
+      <c r="S48" s="8">
+        <f t="shared" si="22"/>
+        <v>173.02941176470588</v>
+      </c>
+      <c r="T48" s="8">
+        <f t="shared" si="22"/>
+        <v>183.84375</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="22"/>
+        <v>183.84375</v>
+      </c>
+      <c r="V48" s="8">
+        <f t="shared" si="22"/>
+        <v>196.1</v>
+      </c>
+      <c r="W48" s="8">
+        <f t="shared" si="22"/>
+        <v>210.10714285714283</v>
+      </c>
+      <c r="X48" s="8">
+        <f t="shared" si="22"/>
+        <v>210.10714285714283</v>
+      </c>
+      <c r="Y48" s="8">
+        <f t="shared" si="22"/>
+        <v>226.26923076923072</v>
+      </c>
+      <c r="Z48" s="8">
+        <f t="shared" si="22"/>
+        <v>245.125</v>
+      </c>
+      <c r="AA48" s="8">
+        <f t="shared" si="22"/>
+        <v>267.40909090909088</v>
+      </c>
+      <c r="AB48" s="8">
+        <f t="shared" si="22"/>
+        <v>294.14999999999998</v>
+      </c>
+      <c r="AC48" s="8">
+        <f t="shared" si="22"/>
+        <v>326.83333333333337</v>
+      </c>
+      <c r="AD48" s="8">
+        <f t="shared" si="22"/>
+        <v>367.6875</v>
+      </c>
+      <c r="AE48" s="8">
+        <f t="shared" si="22"/>
+        <v>420.21428571428567</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="22"/>
+        <v>490.25</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="22"/>
+        <v>490.25</v>
+      </c>
+      <c r="AH48" s="8">
+        <f t="shared" si="22"/>
+        <v>588.29999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="8" t="e">
-        <f t="shared" ref="D28:M28" si="17">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="8" t="e">
-        <f>($M$4+$M$10)*N16*(N6*N7+1-N6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="8" t="e">
-        <f t="shared" ref="O28:AH28" si="18">($M$4+$M$10)*O16*(O6*O7+1-O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="B49" s="37"/>
+      <c r="C49" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D49" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E49" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F49" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G49" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H49" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I49" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J49" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K49" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L49" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M49" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N49" s="8">
+        <f>($M$4+$M$10)*$M$15*(N36*N37+1-N36)</f>
+        <v>144.04772727272726</v>
+      </c>
+      <c r="O49" s="8">
+        <f>($M$4+$M$10)*$M$15*(O36*O37+1-O36)</f>
+        <v>154.99636363636361</v>
+      </c>
+      <c r="P49" s="8">
+        <f>($M$4+$M$10)*$M$15*(P36*P37+1-P36)</f>
+        <v>166.55045454545456</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>($M$4+$M$10)*$M$15*(Q36*Q37+1-Q36)</f>
+        <v>176.64136363636359</v>
+      </c>
+      <c r="R49" s="8">
+        <f>($M$4+$M$10)*$M$15*(R36*R37+1-R36)</f>
+        <v>189.30545454545455</v>
+      </c>
+      <c r="S49" s="8">
+        <f>($M$4+$M$10)*$M$15*(S36*S37+1-S36)</f>
+        <v>202.57499999999999</v>
+      </c>
+      <c r="T49" s="8">
+        <f>($M$4+$M$10)*$M$15*(T36*T37+1-T36)</f>
+        <v>216.45</v>
+      </c>
+      <c r="U49" s="8">
+        <f>($M$4+$M$10)*$M$15*(U36*U37+1-U36)</f>
+        <v>230.93045454545452</v>
+      </c>
+      <c r="V49" s="8">
+        <f>($M$4+$M$10)*$M$15*(V36*V37+1-V36)</f>
+        <v>246.01636363636365</v>
+      </c>
+      <c r="W49" s="8">
+        <f>($M$4+$M$10)*$M$15*(W36*W37+1-W36)</f>
+        <v>261.70772727272725</v>
+      </c>
+      <c r="X49" s="8">
+        <f>($M$4+$M$10)*$M$15*(X36*X37+1-X36)</f>
+        <v>275.22954545454547</v>
+      </c>
+      <c r="Y49" s="8">
+        <f>($M$4+$M$10)*$M$15*(Y36*Y37+1-Y36)</f>
+        <v>292.03090909090906</v>
+      </c>
+      <c r="Z49" s="8">
+        <f>($M$4+$M$10)*$M$15*(Z36*Z37+1-Z36)</f>
+        <v>309.43772727272722</v>
+      </c>
+      <c r="AA49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AA36*AA37+1-AA36)</f>
+        <v>327.44999999999993</v>
+      </c>
+      <c r="AB49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AB36*AB37+1-AB36)</f>
+        <v>346.06772727272732</v>
+      </c>
+      <c r="AC49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AC36*AC37+1-AC36)</f>
+        <v>365.29090909090905</v>
+      </c>
+      <c r="AD49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AD36*AD37+1-AD36)</f>
+        <v>381.73909090909092</v>
+      </c>
+      <c r="AE49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AE36*AE37+1-AE36)</f>
+        <v>402.07227272727266</v>
+      </c>
+      <c r="AF49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AF36*AF37+1-AF36)</f>
+        <v>423.01090909090908</v>
+      </c>
+      <c r="AG49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AG36*AG37+1-AG36)</f>
+        <v>444.55499999999989</v>
+      </c>
+      <c r="AH49" s="8">
+        <f>($M$4+$M$10)*$M$15*(AH36*AH37+1-AH36)</f>
+        <v>466.70454545454544</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="50" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="21"/>
+    </row>
+    <row r="51" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="8" t="e">
-        <f t="shared" ref="D29:M29" si="19">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="8" t="e">
-        <f>($M$4+N10)*N16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="8" t="e">
-        <f t="shared" ref="O29:AH29" si="20">($M$4+O10)*O16*($M$6*$M$7+1-$M$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="C51" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D51" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E51" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F51" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G51" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H51" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I51" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J51" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K51" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L51" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M51" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N51" s="8">
+        <f>(N34+$M$10)*N44*($M$6*$M$7+1-$M$6)</f>
+        <v>198.75</v>
+      </c>
+      <c r="O51" s="8">
+        <f>(O34+$M$10)*O44*($M$6*$M$7+1-$M$6)</f>
+        <v>210.67499999999998</v>
+      </c>
+      <c r="P51" s="8">
+        <f>(P34+$M$10)*P44*($M$6*$M$7+1-$M$6)</f>
+        <v>234.31578947368419</v>
+      </c>
+      <c r="Q51" s="8">
+        <f>(Q34+$M$10)*Q44*($M$6*$M$7+1-$M$6)</f>
+        <v>260.58333333333337</v>
+      </c>
+      <c r="R51" s="8">
+        <f>(R34+$M$10)*R44*($M$6*$M$7+1-$M$6)</f>
+        <v>273.83333333333337</v>
+      </c>
+      <c r="S51" s="8">
+        <f>(S34+$M$10)*S44*($M$6*$M$7+1-$M$6)</f>
+        <v>303.97058823529409</v>
+      </c>
+      <c r="T51" s="8">
+        <f>(T34+$M$10)*T44*($M$6*$M$7+1-$M$6)</f>
+        <v>337.875</v>
+      </c>
+      <c r="U51" s="8">
+        <f>(U34+$M$10)*U44*($M$6*$M$7+1-$M$6)</f>
+        <v>352.78125</v>
+      </c>
+      <c r="V51" s="8">
+        <f>(V34+$M$10)*V44*($M$6*$M$7+1-$M$6)</f>
+        <v>392.2</v>
+      </c>
+      <c r="W51" s="8">
+        <f>(W34+$M$10)*W44*($M$6*$M$7+1-$M$6)</f>
+        <v>437.25</v>
+      </c>
+      <c r="X51" s="8">
+        <f>(X34+$M$10)*X44*($M$6*$M$7+1-$M$6)</f>
+        <v>454.28571428571422</v>
+      </c>
+      <c r="Y51" s="8">
+        <f>(Y34+$M$10)*Y44*($M$6*$M$7+1-$M$6)</f>
+        <v>507.57692307692298</v>
+      </c>
+      <c r="Z51" s="8">
+        <f>(Z34+$M$10)*Z44*($M$6*$M$7+1-$M$6)</f>
+        <v>569.75</v>
+      </c>
+      <c r="AA51" s="8">
+        <f>(AA34+$M$10)*AA44*($M$6*$M$7+1-$M$6)</f>
+        <v>643.22727272727263</v>
+      </c>
+      <c r="AB51" s="8">
+        <f>(AB34+$M$10)*AB44*($M$6*$M$7+1-$M$6)</f>
+        <v>731.4</v>
+      </c>
+      <c r="AC51" s="8">
+        <f>(AC34+$M$10)*AC44*($M$6*$M$7+1-$M$6)</f>
+        <v>839.16666666666674</v>
+      </c>
+      <c r="AD51" s="8">
+        <f>(AD34+$M$10)*AD44*($M$6*$M$7+1-$M$6)</f>
+        <v>973.875</v>
+      </c>
+      <c r="AE51" s="8">
+        <f>(AE34+$M$10)*AE44*($M$6*$M$7+1-$M$6)</f>
+        <v>1147.0714285714284</v>
+      </c>
+      <c r="AF51" s="8">
+        <f>(AF34+$M$10)*AF44*($M$6*$M$7+1-$M$6)</f>
+        <v>1378</v>
+      </c>
+      <c r="AG51" s="8">
+        <f>(AG34+$M$10)*AG44*($M$6*$M$7+1-$M$6)</f>
+        <v>1417.75</v>
+      </c>
+      <c r="AH51" s="8">
+        <f>(AH34+$M$10)*AH44*($M$6*$M$7+1-$M$6)</f>
+        <v>1749</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="52" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="8" t="e">
-        <f>(C4+C10)*C16*(C6*C7+1-C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="8" t="e">
-        <f t="shared" ref="D30:M30" si="21">(D4+D10)*D16*(D6*D7+1-D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="8" t="e">
-        <f>($M$4+N10)*$M$16*(N6*N7+1-N6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="8" t="e">
-        <f t="shared" ref="O30:AH30" si="22">($M$4+O10)*$M$16*(O6*O7+1-O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+      <c r="C52" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D52" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E52" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F52" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G52" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H52" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I52" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J52" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K52" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L52" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M52" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N52" s="8">
+        <f>(N34+$M$10)*$M$15*(N36*N37+1-N36)</f>
+        <v>194.65909090909085</v>
+      </c>
+      <c r="O52" s="8">
+        <f>(O34+$M$10)*$M$15*(O36*O37+1-O36)</f>
+        <v>222.02181818181813</v>
+      </c>
+      <c r="P52" s="8">
+        <f>(P34+$M$10)*$M$15*(P36*P37+1-P36)</f>
+        <v>252.07636363636362</v>
+      </c>
+      <c r="Q52" s="8">
+        <f>(Q34+$M$10)*$M$15*(Q36*Q37+1-Q36)</f>
+        <v>281.67136363636359</v>
+      </c>
+      <c r="R52" s="8">
+        <f>(R34+$M$10)*$M$15*(R36*R37+1-R36)</f>
+        <v>317.21454545454543</v>
+      </c>
+      <c r="S52" s="8">
+        <f>(S34+$M$10)*$M$15*(S36*S37+1-S36)</f>
+        <v>355.87499999999994</v>
+      </c>
+      <c r="T52" s="8">
+        <f>(T34+$M$10)*$M$15*(T36*T37+1-T36)</f>
+        <v>397.79999999999995</v>
+      </c>
+      <c r="U52" s="8">
+        <f>(U34+$M$10)*$M$15*(U36*U37+1-U36)</f>
+        <v>443.13681818181817</v>
+      </c>
+      <c r="V52" s="8">
+        <f>(V34+$M$10)*$M$15*(V36*V37+1-V36)</f>
+        <v>492.0327272727273</v>
+      </c>
+      <c r="W52" s="8">
+        <f>(W34+$M$10)*$M$15*(W36*W37+1-W36)</f>
+        <v>544.63499999999999</v>
+      </c>
+      <c r="X52" s="8">
+        <f>(X34+$M$10)*$M$15*(X36*X37+1-X36)</f>
+        <v>595.09090909090901</v>
+      </c>
+      <c r="Y52" s="8">
+        <f>(Y34+$M$10)*$M$15*(Y36*Y37+1-Y36)</f>
+        <v>655.09636363636355</v>
+      </c>
+      <c r="Z52" s="8">
+        <f>(Z34+$M$10)*$M$15*(Z36*Z37+1-Z36)</f>
+        <v>719.23363636363626</v>
+      </c>
+      <c r="AA52" s="8">
+        <f>(AA34+$M$10)*$M$15*(AA36*AA37+1-AA36)</f>
+        <v>787.64999999999986</v>
+      </c>
+      <c r="AB52" s="8">
+        <f>(AB34+$M$10)*$M$15*(AB36*AB37+1-AB36)</f>
+        <v>860.49272727272728</v>
+      </c>
+      <c r="AC52" s="8">
+        <f>(AC34+$M$10)*$M$15*(AC36*AC37+1-AC36)</f>
+        <v>937.90909090909076</v>
+      </c>
+      <c r="AD52" s="8">
+        <f>(AD34+$M$10)*$M$15*(AD36*AD37+1-AD36)</f>
+        <v>1011.0927272727273</v>
+      </c>
+      <c r="AE52" s="8">
+        <f>(AE34+$M$10)*$M$15*(AE36*AE37+1-AE36)</f>
+        <v>1097.5486363636362</v>
+      </c>
+      <c r="AF52" s="8">
+        <f>(AF34+$M$10)*$M$15*(AF36*AF37+1-AF36)</f>
+        <v>1189.0036363636364</v>
+      </c>
+      <c r="AG52" s="8">
+        <f>(AG34+$M$10)*$M$15*(AG36*AG37+1-AG36)</f>
+        <v>1285.6049999999998</v>
+      </c>
+      <c r="AH52" s="8">
+        <f>(AH34+$M$10)*$M$15*(AH36*AH37+1-AH36)</f>
+        <v>1387.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="8">
+        <f>(C34+C39)*C44*(C36*C37+1-C36)</f>
+        <v>3.1636363636363631</v>
+      </c>
+      <c r="D53" s="8">
+        <f>(D34+D39)*D44*(D36*D37+1-D36)</f>
+        <v>6.7718181818181815</v>
+      </c>
+      <c r="E53" s="8">
+        <f>(E34+E39)*E44*(E36*E37+1-E36)</f>
+        <v>10.947272727272727</v>
+      </c>
+      <c r="F53" s="8">
+        <f>(F34+F39)*F44*(F36*F37+1-F36)</f>
+        <v>17.789318181818182</v>
+      </c>
+      <c r="G53" s="8">
+        <f>(G34+G39)*G44*(G36*G37+1-G36)</f>
+        <v>25.789090909090909</v>
+      </c>
+      <c r="H53" s="8">
+        <f>(H34+H39)*H44*(H36*H37+1-H36)</f>
+        <v>35.130681818181813</v>
+      </c>
+      <c r="I53" s="8">
+        <f>(I34+I39)*I44*(I36*I37+1-I36)</f>
+        <v>43.442727272727275</v>
+      </c>
+      <c r="J53" s="8">
+        <f>(J34+J39)*J44*(J36*J37+1-J36)</f>
+        <v>55.786363636363632</v>
+      </c>
+      <c r="K53" s="8">
+        <f>(K34+K39)*K44*(K36*K37+1-K36)</f>
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L53" s="8">
+        <f>(L34+L39)*L44*(L36*L37+1-L36)</f>
+        <v>82.960227272727266</v>
+      </c>
+      <c r="M53" s="8">
+        <f>(M34+M39)*M44*(M36*M37+1-M36)</f>
+        <v>97.568181818181799</v>
+      </c>
+      <c r="N53" s="8">
+        <f>($M$4+$M$10)*N44*(N36*N37+1-N36)</f>
+        <v>158.45249999999999</v>
+      </c>
+      <c r="O53" s="8">
+        <f>($M$4+$M$10)*O44*(O36*O37+1-O36)</f>
+        <v>170.49599999999998</v>
+      </c>
+      <c r="P53" s="8">
+        <f>($M$4+$M$10)*P44*(P36*P37+1-P36)</f>
+        <v>192.84789473684211</v>
+      </c>
+      <c r="Q53" s="8">
+        <f>($M$4+$M$10)*Q44*(Q36*Q37+1-Q36)</f>
+        <v>215.89499999999998</v>
+      </c>
+      <c r="R53" s="8">
+        <f>($M$4+$M$10)*R44*(R36*R37+1-R36)</f>
+        <v>231.37333333333336</v>
+      </c>
+      <c r="S53" s="8">
+        <f>($M$4+$M$10)*S44*(S36*S37+1-S36)</f>
+        <v>262.15588235294115</v>
+      </c>
+      <c r="T53" s="8">
+        <f>($M$4+$M$10)*T44*(T36*T37+1-T36)</f>
+        <v>297.61874999999998</v>
+      </c>
+      <c r="U53" s="8">
+        <f>($M$4+$M$10)*U44*(U36*U37+1-U36)</f>
+        <v>317.52937500000002</v>
+      </c>
+      <c r="V53" s="8">
+        <f>($M$4+$M$10)*V44*(V36*V37+1-V36)</f>
+        <v>360.82400000000001</v>
+      </c>
+      <c r="W53" s="8">
+        <f>($M$4+$M$10)*W44*(W36*W37+1-W36)</f>
+        <v>411.255</v>
+      </c>
+      <c r="X53" s="8">
+        <f>($M$4+$M$10)*X44*(X36*X37+1-X36)</f>
+        <v>432.50357142857138</v>
+      </c>
+      <c r="Y53" s="8">
+        <f>($M$4+$M$10)*Y44*(Y36*Y37+1-Y36)</f>
+        <v>494.20615384615371</v>
+      </c>
+      <c r="Z53" s="8">
+        <f>($M$4+$M$10)*Z44*(Z36*Z37+1-Z36)</f>
+        <v>567.3024999999999</v>
+      </c>
+      <c r="AA53" s="8">
+        <f>($M$4+$M$10)*AA44*(AA36*AA37+1-AA36)</f>
+        <v>654.89999999999986</v>
+      </c>
+      <c r="AB53" s="8">
+        <f>($M$4+$M$10)*AB44*(AB36*AB37+1-AB36)</f>
+        <v>761.34900000000005</v>
+      </c>
+      <c r="AC53" s="8">
+        <f>($M$4+$M$10)*AC44*(AC36*AC37+1-AC36)</f>
+        <v>892.93333333333328</v>
+      </c>
+      <c r="AD53" s="8">
+        <f>($M$4+$M$10)*AD44*(AD36*AD37+1-AD36)</f>
+        <v>1049.7825</v>
+      </c>
+      <c r="AE53" s="8">
+        <f>($M$4+$M$10)*AE44*(AE36*AE37+1-AE36)</f>
+        <v>1263.6557142857141</v>
+      </c>
+      <c r="AF53" s="8">
+        <f>($M$4+$M$10)*AF44*(AF36*AF37+1-AF36)</f>
+        <v>1551.04</v>
+      </c>
+      <c r="AG53" s="8">
+        <f>($M$4+$M$10)*AG44*(AG36*AG37+1-AG36)</f>
+        <v>1630.0349999999996</v>
+      </c>
+      <c r="AH53" s="8">
+        <f>($M$4+$M$10)*AH44*(AH36*AH37+1-AH36)</f>
+        <v>2053.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="35">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A50:AH50"/>
+    <mergeCell ref="AC33:AH33"/>
+    <mergeCell ref="C38:AH38"/>
+    <mergeCell ref="B40:AH40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AC46:AH46"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X33:AB33"/>
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A24:AH24"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:AH22"/>
     <mergeCell ref="C9:AH9"/>
     <mergeCell ref="C8:AH8"/>
-    <mergeCell ref="B12:AH12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="B11:AH11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE29A8E2-54CF-4D75-B2DD-1F9969BEE323}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>